--- a/Project/BAP/Design/dclink/lcfiltersimres.xlsx
+++ b/Project/BAP/Design/dclink/lcfiltersimres.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,12 +626,8 @@
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="11">
-        <v>3.9390000000000001</v>
-      </c>
-      <c r="L2" s="14">
-        <v>667</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -664,12 +660,8 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <v>1.881</v>
-      </c>
-      <c r="L3" s="15">
-        <v>204</v>
-      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -702,12 +694,8 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="12">
-        <v>0.879</v>
-      </c>
-      <c r="L4" s="15">
-        <v>97.27</v>
-      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -740,12 +728,8 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="L5" s="15">
-        <v>63.36</v>
-      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -778,12 +762,8 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="L6" s="15">
-        <v>46.97</v>
-      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -816,12 +796,8 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L7" s="15">
-        <v>37.409999999999997</v>
-      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -854,12 +830,8 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="L8" s="15">
-        <v>30.98</v>
-      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -892,12 +864,8 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <v>0.247</v>
-      </c>
-      <c r="L9" s="15">
-        <v>26.48</v>
-      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -930,12 +898,8 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="13">
-        <v>0.217</v>
-      </c>
-      <c r="L10" s="16">
-        <v>23.14</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
